--- a/data/raw/comptages_terrain/meteo/us_med_pnmcca_observatoire_comptage_terrain_meteo_2024-09-04.xlsx
+++ b/data/raw/comptages_terrain/meteo/us_med_pnmcca_observatoire_comptage_terrain_meteo_2024-09-04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Meteo" sheetId="3" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <t>Fiume Santu</t>
   </si>
   <si>
-    <t>Torra di Murtella</t>
+    <t>A Torra di Murtella</t>
   </si>
   <si>
     <t>U Travu</t>
@@ -170,7 +170,7 @@
     <t>F4</t>
   </si>
   <si>
-    <t>Maffalcu</t>
+    <t>Malfalcu</t>
   </si>
 </sst>
 </file>
@@ -1295,13 +1295,13 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.552380952381" customWidth="1"/>
+    <col min="2" max="2" width="39.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="10.8857142857143" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="13.4380952380952" customWidth="1"/>
